--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Ball-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8120B9-BB40-49BB-B5D7-84FB823F87CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11B6A0-FF40-46E9-94BB-3C30500CCEBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="676">
   <si>
     <t>Sub-Assy 2</t>
   </si>
@@ -2046,6 +2046,12 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Sub-Assy 1</t>
+  </si>
+  <si>
+    <t>Top-Assy</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +2728,8 @@
   <dimension ref="A1:Z847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G819" sqref="G819"/>
+      <pane ySplit="3" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F787" sqref="F787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2786,12 +2792,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
+      <c r="A2" s="59" t="s">
+        <v>675</v>
+      </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="59"/>
+      <c r="F2" s="62" t="s">
+        <v>674</v>
+      </c>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
